--- a/biology/Botanique/Dryopteris_affinis/Dryopteris_affinis.xlsx
+++ b/biology/Botanique/Dryopteris_affinis/Dryopteris_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryopteris affinis est une espèce de fougères que l'on trouve en Europe occidentale et dans le sud-ouest de l'Europe. Elle est absente en Europe de l'Est et dans le nord de l'Europe. Elle se plaît surtout dans les régions à pluviométrie suffisamment abondante comme dans les îles Britanniques et dans l'ouest de la France et croît dans des sous-bois humides. Sur le littoral méditerranéen et dans le Caucase, cette espèce se rencontre uniquement à haute altitude.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dryopteris paleacea auct.
 Dryopteris filix-mas auct. pro parte</t>
@@ -542,7 +556,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dryopteris affinis subsp. affinis: diploïde
 Dryopteris affinis subsp. borreri: triploïde
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace à rhizome court et robuste d'où naissent des frondes bipennées vertes de 60 cm à 1,60 m de hauteur, souvent persistantes d'hiver. On trouve à la base du pétiole cinq et parfois plus canaux vasculaires. Celui-ci mesure la moitié du limbe foliaire.
 Les spores se forment de juin à septembre.
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce croît dans les sous-bois humides d'arbres à feuilles caduques.
 </t>
